--- a/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
+++ b/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\EPS India\eps-1.4.2-india-v3\eps-1.4.2-india-v3_working folder\InputData\indst\CESTR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA9FD0-7E5A-46E9-A125-ACE7C227D760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,20 +41,20 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>We are using the national average sales tax rate.</t>
-  </si>
-  <si>
     <t>Tax Rate</t>
   </si>
   <si>
     <t>Capital Eqpt</t>
+  </si>
+  <si>
+    <t>We are using the national average sales tax rate - GST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,21 +451,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,29 +473,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -507,24 +513,24 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>0.18</v>
